--- a/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Documentos\_23305_G3_ADS\PREGAME\1.ELICITACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Documentos\_23305_G3_ADS\PREGAME\1.ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -46,24 +46,6 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>Como un..</t>
-  </si>
-  <si>
-    <t>necesito</t>
-  </si>
-  <si>
-    <t>asi podre...</t>
-  </si>
-  <si>
-    <t>notas</t>
-  </si>
-  <si>
-    <t>prioridad</t>
-  </si>
-  <si>
-    <t>estatus</t>
-  </si>
-  <si>
     <t>REQ001</t>
   </si>
   <si>
@@ -82,15 +64,9 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Terminada</t>
-  </si>
-  <si>
     <t>Necesito</t>
   </si>
   <si>
-    <t>así podre...</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
@@ -112,22 +88,13 @@
     <t>REQ001-1</t>
   </si>
   <si>
-    <t>Ingresar a google drive</t>
-  </si>
-  <si>
     <t>Santiago Sañay</t>
   </si>
   <si>
     <t>REQ001-2</t>
   </si>
   <si>
-    <t>Crear un  google sheet , nombre "Usuarios" y con metodos de post and get</t>
-  </si>
-  <si>
     <t>REQ001-3</t>
-  </si>
-  <si>
-    <t>Crear un usuario y password en la hoja de google sheet , de nombre usuario</t>
   </si>
   <si>
     <t>REQ002-1</t>
@@ -270,12 +237,81 @@
       <t>:El tiempo estimado debe ser mejor establecido ya que las tareas están tomando más tiempo de lo indicado.</t>
     </r>
   </si>
+  <si>
+    <t>Como un...</t>
+  </si>
+  <si>
+    <t>Así podré...</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Registrar productos en el inventario</t>
+  </si>
+  <si>
+    <t>Mantener niveles de stock actualizados y evitar errores</t>
+  </si>
+  <si>
+    <t>UC001</t>
+  </si>
+  <si>
+    <t>Registrar ventas y actualizar inventario</t>
+  </si>
+  <si>
+    <t>Reflejar las ventas en el stock</t>
+  </si>
+  <si>
+    <t>UC002</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Registrar pedidos desde la web</t>
+  </si>
+  <si>
+    <t>Facilitar las compras en línea</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>Gestión de Inventario</t>
+  </si>
+  <si>
+    <t>Registro de Ventas</t>
+  </si>
+  <si>
+    <t>Pedido en Línea</t>
+  </si>
+  <si>
+    <t>Como un... (Usuario)</t>
+  </si>
+  <si>
+    <t>Necesito (REQ)</t>
+  </si>
+  <si>
+    <t>Así podré... (Objetivo)</t>
+  </si>
+  <si>
+    <t>Crear un Google Sheet llamado "Usuarios" con métodos POST/GET</t>
+  </si>
+  <si>
+    <t>Crear usuario y contraseña en la hoja "Usuarios"</t>
+  </si>
+  <si>
+    <t>Estimado (hrs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,25 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="8"/>
@@ -325,17 +345,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -365,19 +374,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -400,12 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,15 +448,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -586,108 +581,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,11 +926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234628072"/>
-        <c:axId val="234628856"/>
+        <c:axId val="239060488"/>
+        <c:axId val="239061272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234628072"/>
+        <c:axId val="239060488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +986,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234628856"/>
+        <c:crossAx val="239061272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1008,7 +994,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234628856"/>
+        <c:axId val="239061272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1058,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234628072"/>
+        <c:crossAx val="239060488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1166,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC00A115}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC00A115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,10 +1404,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1431,176 +1417,172 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="54.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="10" customWidth="1"/>
     <col min="8" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="D2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="34"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="34"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="16"/>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="34"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="18"/>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="13"/>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="12"/>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="20"/>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="20"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2586,9 +2568,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2599,162 +2581,159 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I820"/>
+  <dimension ref="A1:J820"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD171"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.109375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="26" width="12.44140625" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.4">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.4">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.6">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.4">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3560,12 +3539,7 @@
     <row r="819" ht="15.75" customHeight="1"/>
     <row r="820" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3578,8 +3552,8 @@
   </sheetPr>
   <dimension ref="A1:J1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -3593,611 +3567,611 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="23">
         <f>SUM(D4:H4)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="23">
         <f t="shared" ref="I5:I6" si="0">SUM(D5:H5)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="39">
+      <c r="A7" s="2"/>
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="23">
         <f t="shared" ref="I7:I30" si="1">SUM(D7:H7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="39">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="39">
+      <c r="A9" s="2"/>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="39">
+      <c r="A10" s="2"/>
+      <c r="B10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="39">
+      <c r="A11" s="2"/>
+      <c r="B11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="39">
+      <c r="A12" s="2"/>
+      <c r="B12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="39">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="39">
+      <c r="A14" s="2"/>
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="39">
+      <c r="A15" s="2"/>
+      <c r="B15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="39">
+      <c r="A16" s="2"/>
+      <c r="B16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="39">
+      <c r="A17" s="2"/>
+      <c r="B17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="39">
+      <c r="A18" s="2"/>
+      <c r="B18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="39">
+      <c r="A19" s="2"/>
+      <c r="B19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="39">
+      <c r="A20" s="2"/>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="39">
+      <c r="A21" s="2"/>
+      <c r="B21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="39">
+      <c r="A22" s="2"/>
+      <c r="B22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="39">
+      <c r="A23" s="2"/>
+      <c r="B23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="39">
+      <c r="A24" s="2"/>
+      <c r="B24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="39">
+      <c r="A25" s="2"/>
+      <c r="B25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="39">
+      <c r="A26" s="2"/>
+      <c r="B26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="39">
+      <c r="A27" s="2"/>
+      <c r="B27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="39">
+      <c r="A28" s="2"/>
+      <c r="B28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="39">
+      <c r="A29" s="2"/>
+      <c r="B29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="39">
+      <c r="A30" s="2"/>
+      <c r="B30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4">
         <f>SUM(C4:C16)</f>
         <v>4</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="4">
         <f>C31-SUM(D4:D16)</f>
         <v>3</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="4">
         <f>D31-SUM(E4:E16)</f>
         <v>3</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="4">
         <f>E31-SUM(F4:F16)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="4">
         <f>F31-SUM(G4:G30)</f>
         <v>1</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="4">
         <f>G31-SUM(H4:H16)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="43">
+      <c r="A32" s="1"/>
+      <c r="B32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="27">
         <f>SUM(C4:C16)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="27">
         <f>C32-(SUM(C4:C16)/5)</f>
         <v>3.2</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="27">
         <f>D32-(SUM(C4:C16)/5)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="27">
         <f>E32-(SUM(C4:C16)/5)</f>
         <v>1.6000000000000003</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="27">
         <f>F32-(SUM(C4:C16)/5)</f>
         <v>0.80000000000000027</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="27">
         <f>G32-(SUM(C4:C16)/5)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:9" ht="15.75" customHeight="1"/>
@@ -4219,70 +4193,70 @@
     <row r="51" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
+      <c r="B53" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
+      <c r="B58" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5243,7 +5217,7 @@
     <mergeCell ref="B53:I55"/>
     <mergeCell ref="B58:I60"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5254,11 +5228,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5495,27 +5470,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5540,9 +5505,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -46,39 +46,18 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>REQ001</t>
-  </si>
-  <si>
-    <t>Crear usuario</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Ingresar al drive</t>
-  </si>
-  <si>
-    <t>Crear los perfiles de usuario para que ingresen al aplicativo</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Necesito</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Terminado</t>
-  </si>
-  <si>
-    <t>Tareas</t>
-  </si>
-  <si>
     <t>Asignado</t>
   </si>
   <si>
@@ -86,9 +65,6 @@
   </si>
   <si>
     <t>REQ001-1</t>
-  </si>
-  <si>
-    <t>Santiago Sañay</t>
   </si>
   <si>
     <t>REQ001-2</t>
@@ -238,18 +214,9 @@
     </r>
   </si>
   <si>
-    <t>Como un...</t>
-  </si>
-  <si>
-    <t>Así podré...</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
-    <t>Estatus</t>
-  </si>
-  <si>
     <t>Registrar productos en el inventario</t>
   </si>
   <si>
@@ -298,13 +265,82 @@
     <t>Así podré... (Objetivo)</t>
   </si>
   <si>
-    <t>Crear un Google Sheet llamado "Usuarios" con métodos POST/GET</t>
-  </si>
-  <si>
-    <t>Crear usuario y contraseña en la hoja "Usuarios"</t>
-  </si>
-  <si>
     <t>Estimado (hrs)</t>
+  </si>
+  <si>
+    <t>Gestión de Usuarios</t>
+  </si>
+  <si>
+    <t>Cliente / Administrador</t>
+  </si>
+  <si>
+    <t>Registrar e iniciar sesión de usuarios</t>
+  </si>
+  <si>
+    <t>Permitir el acceso seguro al sistema para usar sus funcionalidades</t>
+  </si>
+  <si>
+    <t>RF001</t>
+  </si>
+  <si>
+    <t>RF002</t>
+  </si>
+  <si>
+    <t>RF003</t>
+  </si>
+  <si>
+    <t>RF004</t>
+  </si>
+  <si>
+    <t>Muy Alta</t>
+  </si>
+  <si>
+    <t>RF007</t>
+  </si>
+  <si>
+    <t>Requisito Funcional (RF)</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Registrar, actualizar, eliminar y consultar productos en el inventario.</t>
+  </si>
+  <si>
+    <t>Permitir a clientes registrar pedidos desde la plataforma web.</t>
+  </si>
+  <si>
+    <t>Finalización de Compra</t>
+  </si>
+  <si>
+    <t>Finalizar compras, confirmar pagos y enviar confirmación por correo.</t>
+  </si>
+  <si>
+    <t>Registrar usuarios, permitir inicio de sesión seguro para clientes y administradores.</t>
+  </si>
+  <si>
+    <t>Registrar ventas y actualizar inventario automáticamente tras cada venta.</t>
+  </si>
+  <si>
+    <t>RF005</t>
+  </si>
+  <si>
+    <t>Soporte al Cliente</t>
+  </si>
+  <si>
+    <t>Registrar consultas o problemas de clientes, permitir seguimiento y cierre de casos.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>RF006</t>
+  </si>
+  <si>
+    <t>Gestión de Empleados</t>
+  </si>
+  <si>
+    <t>Gestionar datos de empleados, evitando duplicación y permitiendo alta, baja y modificación.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -590,11 +626,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -654,26 +703,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="239060488"/>
-        <c:axId val="239061272"/>
+        <c:axId val="245670784"/>
+        <c:axId val="245673528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239060488"/>
+        <c:axId val="245670784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +1007,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -986,7 +1043,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239061272"/>
+        <c:crossAx val="245673528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -994,7 +1051,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239061272"/>
+        <c:axId val="245673528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1058,7 +1114,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239060488"/>
+        <c:crossAx val="245670784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1145,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1166,7 +1221,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC00A115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC00A115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,8 +1461,8 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1418,139 +1473,151 @@
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="54.44140625" customWidth="1"/>
     <col min="6" max="6" width="51.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="10" customWidth="1"/>
-    <col min="8" max="26" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>58</v>
+      <c r="C1" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="E2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="34"/>
+      <c r="E3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="34"/>
+      <c r="E4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1563,14 +1630,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1578,8 +1645,26 @@
       <c r="G11" s="9"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
+    </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
@@ -2568,7 +2653,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2581,159 +2666,189 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J820"/>
+  <dimension ref="A1:H820"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.109375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="B2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39.6">
+      <c r="A3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.4">
+      <c r="A4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>77</v>
       </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="26.4">
-      <c r="A3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
+    <row r="5" spans="1:8" ht="39.6">
+      <c r="A5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
-      <c r="A4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:8" ht="26.4">
+      <c r="A6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
-    <row r="5" spans="1:10" ht="39.6">
-      <c r="A5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="32">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:8" ht="26.4">
+      <c r="A7" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
-    <row r="6" spans="1:10" ht="26.4">
-      <c r="A6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="32">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:8" ht="39.6">
+      <c r="A8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:8" ht="39.6">
+      <c r="A9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3579,35 +3694,35 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -3636,7 +3751,7 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -3665,7 +3780,7 @@
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -3694,7 +3809,7 @@
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
@@ -3711,7 +3826,7 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="13"/>
@@ -3728,7 +3843,7 @@
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -3745,7 +3860,7 @@
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -3762,7 +3877,7 @@
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -3779,7 +3894,7 @@
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
@@ -3796,7 +3911,7 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -3813,7 +3928,7 @@
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
@@ -3830,7 +3945,7 @@
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -3847,7 +3962,7 @@
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
@@ -3864,7 +3979,7 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="16"/>
@@ -3881,7 +3996,7 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
@@ -3898,7 +4013,7 @@
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="16"/>
@@ -3915,7 +4030,7 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="17"/>
@@ -3932,7 +4047,7 @@
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -3949,7 +4064,7 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -3966,7 +4081,7 @@
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -3983,7 +4098,7 @@
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -4000,7 +4115,7 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -4017,7 +4132,7 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="17"/>
@@ -4034,7 +4149,7 @@
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="17"/>
@@ -4051,7 +4166,7 @@
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="17"/>
@@ -4068,7 +4183,7 @@
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="17"/>
@@ -4085,7 +4200,7 @@
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -4102,7 +4217,7 @@
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
         <f>SUM(C4:C16)</f>
@@ -4134,7 +4249,7 @@
     <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C32" s="27">
         <f>SUM(C4:C16)</f>
@@ -4193,70 +4308,70 @@
     <row r="51" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="B53" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="B58" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5228,12 +5343,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5470,17 +5584,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5505,18 +5629,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -298,12 +298,6 @@
     <t>RF007</t>
   </si>
   <si>
-    <t>Requisito Funcional (RF)</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Registrar, actualizar, eliminar y consultar productos en el inventario.</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Finalizar compras, confirmar pagos y enviar confirmación por correo.</t>
   </si>
   <si>
-    <t>Registrar usuarios, permitir inicio de sesión seguro para clientes y administradores.</t>
-  </si>
-  <si>
     <t>Registrar ventas y actualizar inventario automáticamente tras cada venta.</t>
   </si>
   <si>
@@ -341,13 +332,154 @@
   </si>
   <si>
     <t>Gestionar datos de empleados, evitando duplicación y permitiendo alta, baja y modificación.</t>
+  </si>
+  <si>
+    <t>notas</t>
+  </si>
+  <si>
+    <t>prioridad</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>Como un...</t>
+  </si>
+  <si>
+    <t>Necesito...</t>
+  </si>
+  <si>
+    <t>Así podré...</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Registrar usuarios e iniciar sesión de forma segura</t>
+  </si>
+  <si>
+    <t>Permitir acceso al sistema según el rol (cliente o administrador)</t>
+  </si>
+  <si>
+    <t>REQ001</t>
+  </si>
+  <si>
+    <t>Registro e inicio de sesión</t>
+  </si>
+  <si>
+    <t>Visitante / Guardaparque</t>
+  </si>
+  <si>
+    <t>Ingresar mis credenciales o registrarme con mis datos personales</t>
+  </si>
+  <si>
+    <t>Acceder a las funcionalidades del sistema según mi tipo de usuario</t>
+  </si>
+  <si>
+    <t>No Iniciado</t>
+  </si>
+  <si>
+    <t>Crear tabla usuarios</t>
+  </si>
+  <si>
+    <t>Crear campos: nombre, usuario, contraseña, rol, etc.</t>
+  </si>
+  <si>
+    <t>Tener estructura de base para almacenar usuarios</t>
+  </si>
+  <si>
+    <t>Kevin Asmal</t>
+  </si>
+  <si>
+    <t>Implementar endpoints</t>
+  </si>
+  <si>
+    <t>Registro y login con validación y encriptación</t>
+  </si>
+  <si>
+    <t>Proteger datos sensibles al autenticar usuarios</t>
+  </si>
+  <si>
+    <t>Token de autenticación</t>
+  </si>
+  <si>
+    <t>Generar y manejar JWT</t>
+  </si>
+  <si>
+    <t>Validar sesiones y mantener usuarios autenticados</t>
+  </si>
+  <si>
+    <t>REQ001-4</t>
+  </si>
+  <si>
+    <t>Redirección por rol</t>
+  </si>
+  <si>
+    <t>Redirigir según si soy visitante o guardaparque</t>
+  </si>
+  <si>
+    <t>Ver la vista que corresponde a mi perfil</t>
+  </si>
+  <si>
+    <t>Como un..</t>
+  </si>
+  <si>
+    <t>Necesito</t>
+  </si>
+  <si>
+    <t>Registrarme con mis datos o iniciar sesión con mis credenciales</t>
+  </si>
+  <si>
+    <t>Acceder de forma segura a las funcionalidades del sistema según mi rol</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crear tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con campos: nombre, usuario, contraseña, rol, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Implementar endpoints de registro e inicio de sesión con validación y hash</t>
+  </si>
+  <si>
+    <t>Generar y manejar tokens de autenticación (JWT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,6 +549,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -456,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -639,11 +777,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -712,6 +872,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,16 +890,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -984,11 +1165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245670784"/>
-        <c:axId val="245673528"/>
+        <c:axId val="231572560"/>
+        <c:axId val="235382744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245670784"/>
+        <c:axId val="231572560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1224,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245673528"/>
+        <c:crossAx val="235382744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1232,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245673528"/>
+        <c:axId val="235382744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1295,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245670784"/>
+        <c:crossAx val="231572560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1221,7 +1402,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC00A115}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC00A115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,10 +1640,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1478,14 +1659,14 @@
     <col min="9" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="29" t="s">
@@ -1503,16 +1684,24 @@
       <c r="H1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -1530,15 +1719,21 @@
       <c r="H2" s="30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -1556,15 +1751,21 @@
       <c r="H3" s="30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -1582,8 +1783,14 @@
       <c r="H4" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J4" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="30" t="s">
         <v>72</v>
@@ -1600,22 +1807,28 @@
       <c r="H5" s="30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="J5" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -1625,7 +1838,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
@@ -1635,7 +1848,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
@@ -1645,7 +1858,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
@@ -1655,7 +1868,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -1665,9 +1878,9 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2666,10 +2879,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H820"/>
+  <dimension ref="A1:J820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2689,182 +2902,453 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="G2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="H2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="39.6">
+      <c r="A3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="D4" s="45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="39.6">
-      <c r="A3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.4">
-      <c r="A4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="39.6">
-      <c r="A5" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.2">
+      <c r="A5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="26.4">
-      <c r="A6" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4">
-      <c r="A7" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="39.6">
-      <c r="A8" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="39.6">
-      <c r="A9" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
+      <c r="A6" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2"/>
+    <row r="9" spans="1:8" ht="13.2"/>
     <row r="10" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4308,70 +4792,70 @@
     <row r="51" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5343,11 +5827,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5584,27 +6069,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5629,9 +6104,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>